--- a/data/execution_controller.xlsx
+++ b/data/execution_controller.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="656"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="728" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="7" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="doctor" sheetId="9" r:id="rId6"/>
     <sheet name="vendor" sheetId="10" r:id="rId7"/>
     <sheet name="test_scenarios" sheetId="11" r:id="rId8"/>
+    <sheet name="maxlife_questions" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
   <si>
     <t>Username</t>
   </si>
@@ -72,13 +73,103 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Are you pregnant ?</t>
+  </si>
+  <si>
+    <t>Have you undergone any of these tests like mammogram, ultrasound, pap smear etc. ?</t>
+  </si>
+  <si>
+    <t>Any history of chest pain, heart attack, palpitations, and breathlessness on exertion or irregular heart beat ?</t>
+  </si>
+  <si>
+    <t>Hypertension or high blood pressure/high cholesterol?</t>
+  </si>
+  <si>
+    <t>High blood sugar/ Diabetes</t>
+  </si>
+  <si>
+    <t>Thyroid disorder or any other endocrine disorders</t>
+  </si>
+  <si>
+    <t>Asthma, bronchitis, wheezing, tuberculosis, breathing difficulties or any other respiratory disorder?</t>
+  </si>
+  <si>
+    <t>Blood disorder like anemia, leukemia or any circulatory disorder.</t>
+  </si>
+  <si>
+    <t>Liver disorders like cirrhosis, hepatitis, jaundice, disorder of the stomach, colitis or indigestion.</t>
+  </si>
+  <si>
+    <t>Any physical or mental disability or any congenital disease?</t>
+  </si>
+  <si>
+    <t>Any form of cancer, tumour, cyst, or growth of any kind or enlarged lymph nodes?</t>
+  </si>
+  <si>
+    <t>Any diseases related to kidney such as Kidney failure, Kidney or Ureteric stones, blood or pus in urine or prostrate or gynecological disorder.</t>
+  </si>
+  <si>
+    <t>Epilepsy, nervous disorder, multiple sclerosis, tremors, numbness, paralysis or psychiatric disorder?</t>
+  </si>
+  <si>
+    <t>Eye, ear, nose or throat disorder, (Except use of spectacles) ?</t>
+  </si>
+  <si>
+    <t>Disorder of back, muscle, joints, bone, neck, deformity, amputation, arthritis or gout</t>
+  </si>
+  <si>
+    <t>In the last 5 years, have you had or been advised to have or in the next 30 days will you have an X-ray/ CT Scan / MRI / ECG / TMT / blood test or any other investigatory or diagnostic tests or any type of surgery?</t>
+  </si>
+  <si>
+    <t>Do you or your spouse has been tested positive or is under treatment for HIV / AIDS / Sexually transmitted diseases (e.g. syphilis, gonorrhea, etc.) ?</t>
+  </si>
+  <si>
+    <t>Are you receiving any treatment /medication or has in the past received any treatment or undergone surgery/hospitalized for any medical condition /disability? If yes, Reason for medication and name of medicine?</t>
+  </si>
+  <si>
+    <t>Have you been off work due to illness or for a continuous period of more than 10 days during the last one year?</t>
+  </si>
+  <si>
+    <t>Have you suffered or suffering from any other disease/ailment/habit not mentioned above?</t>
+  </si>
+  <si>
+    <t>Cigarettes/Beedis/Cigar ?</t>
+  </si>
+  <si>
+    <t>Gutka/Snuff/Paan ?</t>
+  </si>
+  <si>
+    <t>Beer/Wine/Hard Liquor ?</t>
+  </si>
+  <si>
+    <t>Please mark as done only on completion of form</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>This is for testing</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +184,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -142,11 +239,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -678,4 +778,352 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="141.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Yes" sqref="B2:B25">
+      <formula1>"yes, no"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/execution_controller.xlsx
+++ b/data/execution_controller.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="728" activeTab="8"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
   <si>
     <t>Username</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Questions</t>
   </si>
   <si>
-    <t>Option</t>
-  </si>
-  <si>
     <t>Answer</t>
   </si>
   <si>
@@ -163,13 +160,79 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>Application_ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Phone_Number</t>
+  </si>
+  <si>
+    <t>Alt_Phone_Number</t>
+  </si>
+  <si>
+    <t>Date_of_Birth(DD-MM-YYYY)</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>Plan_Details</t>
+  </si>
+  <si>
+    <t>Nominee</t>
+  </si>
+  <si>
+    <t>Nominee_DOB</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>TestNom</t>
+  </si>
+  <si>
+    <t>HKJ3WU44KL</t>
+  </si>
+  <si>
+    <t>TestMaxLife</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Dr.Abhijeet</t>
+  </si>
+  <si>
+    <t>Max Life</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +253,13 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -236,10 +306,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -247,9 +318,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -557,13 +633,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="66.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -571,7 +647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -592,13 +668,13 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -627,13 +703,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -662,13 +738,13 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -691,15 +767,121 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1010190201</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9916080161</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2222222222</v>
+      </c>
+      <c r="F2" s="6">
+        <v>33878</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="7">
+        <v>24089</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G19">
+      <formula1>"male, female"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -709,7 +891,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -723,7 +905,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -737,13 +919,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -751,7 +933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -759,7 +941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -767,7 +949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -784,335 +966,335 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="141.7109375" customWidth="1"/>
+    <col min="1" max="1" width="54" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="12">
       <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="24.75">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="36.75">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="24.75">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="36.75">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="24.75">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="36.75">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="24.75">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="24.75">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="36.75">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="36.75">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="24.75">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="24.75">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="60.75">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="48.75">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="60.75">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="36.75">
       <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="24.75">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
